--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Excel/Datas/l10n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC65BD7-0C91-4045-8C1C-5B5C99B84713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2D053-3E65-4BFC-AC50-CB53704AE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="4080" windowWidth="19760" windowHeight="12020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -39,71 +39,59 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简体中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>繁体中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>文本key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh_TW</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>player0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>enemy0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>player(EN)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>enemy(EN)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game.Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STAR FORCE</t>
@@ -116,7 +104,7 @@
   </si>
   <si>
     <t>Game.Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework Demo Program</t>
@@ -132,37 +120,37 @@
   </si>
   <si>
     <t>https://GameFramework.cn/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game.Summary</t>
   </si>
   <si>
     <t>This project is a demo game made with Game Framework. It's intended to demonstrate how this game framework should be used for developers' reference.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>这是一个使用 Game Framework 游戏框架制作的游戏演示项目，目的是对此游戏框架的使用方法做一些示范，供使用者参考。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>這是一個使用 Game Framework 遊戲框架製作的遊戲演示專案，目的是對此遊戲框架的使用方法做一些示範，供使用者參考。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game.Introduction</t>
   </si>
   <si>
     <t>Game Framework is literally a game framework, based on Unity game engine. It encapsulates commonly used game modules during development, and, to a large degree, standardises the process, enhances the development speed and ensures the product quality.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework 是基于 Unity 引擎的游戏框架，主要对游戏开发过程中常用模块进行了封装，很大程度地规范开发过程、加快开发速度并保证产品质量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework 是基於 Unity 引擎的遊戲框架，主要對遊戲開發過程中常用模組進行了封裝，很大程度地規範開發過程、加快開發速度並保證產品品質。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Menu.StartButton</t>
@@ -172,11 +160,11 @@
   </si>
   <si>
     <t>开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>開始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Menu.SettingButto</t>
@@ -186,7 +174,7 @@
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>退出</t>
@@ -199,7 +187,7 @@
   </si>
   <si>
     <t>关于</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>確定</t>
@@ -212,94 +200,94 @@
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Dialog.CancelButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForceUpdate.Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Dialog.OtherButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForceUpdate.Message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForceUpdate.UpdateButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ForceUpdate.QuitButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AskQuitGame.Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AskQuitGame.Messag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Music</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Sound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.UISound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Language</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Setting.LanguageTips</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更改語言需要重啟遊戲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>語言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>介面音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>音樂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>設置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否確認退出遊戲？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>確認退出</t>
@@ -309,7 +297,7 @@
   </si>
   <si>
     <t>當前遊戲版本過舊，是否前往更新？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>強制更新</t>
@@ -319,18 +307,18 @@
   </si>
   <si>
     <t>Dialog.ConfirmButton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Language change demands restarting.</t>
   </si>
   <si>
     <t>Language</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI Sound FX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sound FX</t>
@@ -343,14 +331,14 @@
   </si>
   <si>
     <t>CONFIRM TO QUIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE</t>
   </si>
   <si>
     <t>The current game version is out-of-date. Would you like to go for update now?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OUT OF DATE</t>
@@ -369,50 +357,50 @@
   </si>
   <si>
     <t>界面音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>是否确认退出游戏？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确认退出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>推出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当前游戏版本过旧，是否前往更新？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>强制更新</t>
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>韩文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -448,7 +436,7 @@
       </rPr>
       <t>프레임워크</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -487,7 +475,7 @@
       </rPr>
       <t>프로그램</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -996,30 +984,30 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아웃</t>
   </si>
   <si>
     <t>아웃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>취소</t>
@@ -1115,7 +1103,7 @@
   </si>
   <si>
     <t>효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1217,10 +1205,6 @@
       </rPr>
       <t>합니다</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ko_KR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1836,7 +1820,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1957,7 +1941,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1984,7 +1968,7 @@
       </rPr>
       <t>확인</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2001,27 +1985,27 @@
       </rPr>
       <t>효과음</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>언어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>敵人0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>敌人0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>플레이어 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2044,19 +2028,43 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseTraditional</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2108,14 +2116,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Batang"/>
       <family val="2"/>
       <charset val="129"/>
@@ -2160,22 +2160,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2460,39 +2460,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2529,408 +2529,408 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="80">
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="96">
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{42E00810-55F1-43FD-8FEA-1D63C021397E}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{6677F3A1-7397-4552-A0F5-2085BE6B263D}"/>
@@ -2946,40 +2946,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3016,52 +3016,52 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16">
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1"/>
-    <row r="8" spans="1:6" s="2" customFormat="1"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2D053-3E65-4BFC-AC50-CB53704AE05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF4917-C061-804C-8189-9A2C743D089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="21620" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AskQuitGame.Messag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Setting.Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2045,13 +2041,17 @@
   <si>
     <t>Korean</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AskQuitGame.Message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2460,19 +2460,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,19 +2480,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2529,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2546,10 +2546,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2563,10 +2563,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="80">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2597,11 +2597,11 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="96">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2615,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -2632,10 +2632,10 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -2649,10 +2649,10 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -2666,10 +2666,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -2683,100 +2683,100 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>51</v>
       </c>
@@ -2784,149 +2784,149 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2950,16 +2950,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,19 +2967,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3016,10 +3016,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3027,16 +3027,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3044,22 +3044,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CF4917-C061-804C-8189-9A2C743D089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C726D5A8-D501-47EF-90C1-5720BB2531F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="21620" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Menu.SettingButto</t>
-  </si>
-  <si>
     <t>SETTINGS</t>
   </si>
   <si>
@@ -2044,6 +2041,10 @@
   </si>
   <si>
     <t>AskQuitGame.Message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu.SettingButton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2051,7 +2052,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2460,19 +2461,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,19 +2481,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2529,10 +2530,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2546,10 +2547,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2563,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="80">
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2597,11 +2598,11 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="96">
+    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2615,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -2632,301 +2633,301 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2950,16 +2951,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,19 +2968,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3016,10 +3017,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3027,16 +3028,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3044,22 +3045,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C726D5A8-D501-47EF-90C1-5720BB2531F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F2E82-8F73-4B4B-B99F-BCA13076120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
     <t>##var</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -204,26 +204,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ForceUpdate.Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Dialog.OtherButton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ForceUpdate.Message</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceUpdate.UpdateButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForceUpdate.QuitButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AskQuitGame.Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -286,16 +270,6 @@
     <t>確認退出</t>
   </si>
   <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>當前遊戲版本過舊，是否前往更新？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>強制更新</t>
-  </si>
-  <si>
     <t>取消</t>
   </si>
   <si>
@@ -327,16 +301,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
-    <t>The current game version is out-of-date. Would you like to go for update now?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT OF DATE</t>
-  </si>
-  <si>
     <t>CANCEL</t>
   </si>
   <si>
@@ -367,21 +331,6 @@
   <si>
     <t>确认退出</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>推出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前游戏版本过旧，是否前往更新？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强制更新</t>
   </si>
   <si>
     <t>取消</t>
@@ -993,9 +942,6 @@
   </si>
   <si>
     <t>아웃</t>
-  </si>
-  <si>
-    <t>아웃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1007,35 +953,6 @@
   </si>
   <si>
     <r>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>업데이트</t>
-    </r>
-  </si>
-  <si>
-    <t>업데이트</t>
-  </si>
-  <si>
-    <r>
       <t>게임</t>
     </r>
     <r>
@@ -1812,127 +1729,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>버전이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>업데이트를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>원하십니까</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2045,6 +1841,160 @@
   </si>
   <si>
     <t>Menu.SettingButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+  </si>
+  <si>
+    <t>韓語</t>
+  </si>
+  <si>
+    <t>韩语</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Language.Korean</t>
+  </si>
+  <si>
+    <r>
+      <t>중국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>번체</t>
+    </r>
+  </si>
+  <si>
+    <t>繁體中文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>Chinese Traditional</t>
+  </si>
+  <si>
+    <t>Language.ChineseTraditional</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Game Framework </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데모중국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡體中文</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>Chinese Simplified</t>
+  </si>
+  <si>
+    <t>Language.ChineseSimplified</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>英語</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language.English</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2052,7 +2002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2121,6 +2071,14 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2166,7 +2124,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2177,6 +2135,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2461,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2433,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2481,16 +2444,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2530,7 +2493,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2547,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2564,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2598,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -2616,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2633,12 +2596,12 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2650,7 +2613,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2667,7 +2630,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2684,24 +2647,24 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,123 +2672,123 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
         <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -2833,16 +2796,16 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -2850,84 +2813,84 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>113</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2902,7 @@
     <hyperlink ref="F6" r:id="rId4" xr:uid="{1B568839-21D1-F243-98A0-0C07E4CB5548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2968,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3017,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3028,13 +2991,13 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3045,13 +3008,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">

--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812F2E82-8F73-4B4B-B99F-BCA13076120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8D8CB-2288-5341-A474-833AD6603E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="21620" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>##var</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -201,10 +201,6 @@
   </si>
   <si>
     <t>Dialog.CancelButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog.OtherButton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2002,7 +1998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2422,21 +2418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2444,19 +2440,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2493,10 +2489,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2510,10 +2506,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2527,10 +2523,10 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2547,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="80">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2561,11 +2557,11 @@
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="96">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2579,10 +2575,10 @@
         <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -2596,12 +2592,12 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2613,10 +2609,10 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -2630,10 +2626,10 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -2647,250 +2643,245 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16">
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="16">
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2914,16 +2905,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2931,19 +2922,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2980,10 +2971,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2991,16 +2982,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3008,22 +2999,22 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.25"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/Localization.xlsx
+++ b/Config/Excel/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edy/projs/GameFramework-Pro/Config/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_projs\unity\GameFramework-Pro\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8D8CB-2288-5341-A474-833AD6603E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC83ACE-B29E-40CB-B6DD-219DD2DC3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="21620" windowHeight="12020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2550" windowWidth="21615" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -36,62 +36,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>简体中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>繁体中文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>文本key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>player0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>enemy0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>player(EN)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>enemy(EN)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game.Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>STAR FORCE</t>
@@ -104,7 +104,7 @@
   </si>
   <si>
     <t>Game.Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework Demo Program</t>
@@ -120,37 +120,37 @@
   </si>
   <si>
     <t>https://GameFramework.cn/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game.Summary</t>
   </si>
   <si>
     <t>This project is a demo game made with Game Framework. It's intended to demonstrate how this game framework should be used for developers' reference.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>这是一个使用 Game Framework 游戏框架制作的游戏演示项目，目的是对此游戏框架的使用方法做一些示范，供使用者参考。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>這是一個使用 Game Framework 遊戲框架製作的遊戲演示專案，目的是對此遊戲框架的使用方法做一些示範，供使用者參考。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game.Introduction</t>
   </si>
   <si>
     <t>Game Framework is literally a game framework, based on Unity game engine. It encapsulates commonly used game modules during development, and, to a large degree, standardises the process, enhances the development speed and ensures the product quality.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework 是基于 Unity 引擎的游戏框架，主要对游戏开发过程中常用模块进行了封装，很大程度地规范开发过程、加快开发速度并保证产品质量。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Game Framework 是基於 Unity 引擎的遊戲框架，主要對遊戲開發過程中常用模組進行了封裝，很大程度地規範開發過程、加快開發速度並保證產品品質。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Menu.StartButton</t>
@@ -160,18 +160,18 @@
   </si>
   <si>
     <t>开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>開始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SETTINGS</t>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>退出</t>
@@ -184,7 +184,7 @@
   </si>
   <si>
     <t>关于</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>確定</t>
@@ -197,70 +197,70 @@
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dialog.CancelButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AskQuitGame.Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Music</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Sound</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.UISound</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.Language</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Setting.LanguageTips</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>更改語言需要重啟遊戲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>語言</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>介面音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>音效</t>
   </si>
   <si>
     <t>音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>音樂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>設置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否確認退出遊戲？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>確認退出</t>
@@ -270,18 +270,18 @@
   </si>
   <si>
     <t>Dialog.ConfirmButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Language change demands restarting.</t>
   </si>
   <si>
     <t>Language</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI Sound FX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Sound FX</t>
@@ -294,7 +294,7 @@
   </si>
   <si>
     <t>CONFIRM TO QUIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CANCEL</t>
@@ -310,35 +310,35 @@
   </si>
   <si>
     <t>界面音效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否确认退出游戏？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确认退出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>取消</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>韩文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -374,7 +374,7 @@
       </rPr>
       <t>프레임워크</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,7 +413,7 @@
       </rPr>
       <t>프로그램</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -922,27 +922,27 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>아웃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>확인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>취소</t>
@@ -1009,7 +1009,7 @@
   </si>
   <si>
     <t>효과음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1111,7 +1111,7 @@
       </rPr>
       <t>합니다</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1726,7 +1726,7 @@
       </rPr>
       <t>.</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1753,7 +1753,7 @@
       </rPr>
       <t>확인</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1770,27 +1770,27 @@
       </rPr>
       <t>효과음</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>언어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>玩家0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敵人0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>敌人0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>플레이어 0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1813,31 +1813,31 @@
       </rPr>
       <t xml:space="preserve"> 0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>English</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChineseSimplified</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChineseTraditional</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Korean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AskQuitGame.Message</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Menu.SettingButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>한국어</t>
@@ -1882,7 +1882,7 @@
   </si>
   <si>
     <t>繁體中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>繁体中文</t>
@@ -1894,116 +1894,91 @@
     <t>Language.ChineseTraditional</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Game Framework </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데모중국어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Batang"/>
+    <t>簡體中文</t>
+  </si>
+  <si>
+    <t>简体中文</t>
+  </si>
+  <si>
+    <t>Chinese Simplified</t>
+  </si>
+  <si>
+    <t>Language.ChineseSimplified</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>英語</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language.English</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>設置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>간체</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Batang"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로그램</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡體中文</t>
-  </si>
-  <si>
-    <t>简体中文</t>
-  </si>
-  <si>
-    <t>Chinese Simplified</t>
-  </si>
-  <si>
-    <t>Language.ChineseSimplified</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>영어</t>
-  </si>
-  <si>
-    <t>英語</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.English</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2075,6 +2050,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2115,27 +2110,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2420,19 +2416,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E21C8E4-C9B6-4CB3-B760-D68C813C7312}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
     <col min="4" max="5" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2492,7 +2488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2526,7 +2522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="80">
+    <row r="7" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2561,7 +2557,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="96">
+    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -2595,7 +2591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>110</v>
       </c>
@@ -2606,13 +2602,13 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -2629,7 +2625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -2646,7 +2642,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -2663,7 +2659,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -2697,7 +2693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>109</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>47</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>48</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>49</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>50</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -2816,41 +2812,41 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="16">
+      <c r="F24" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>120</v>
       </c>
@@ -2867,7 +2863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="16">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>115</v>
       </c>
@@ -2885,7 +2881,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{42E00810-55F1-43FD-8FEA-1D63C021397E}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{6677F3A1-7397-4552-A0F5-2085BE6B263D}"/>
@@ -2905,16 +2901,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2974,7 +2970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3008,15 +3004,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="14.25"/>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
